--- a/Code/Results/Cases/Case_3_122/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_122/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.528799239139914</v>
+        <v>1.270828066841489</v>
       </c>
       <c r="C2">
-        <v>1.017345487885763</v>
+        <v>0.3351633210374416</v>
       </c>
       <c r="D2">
-        <v>0.3935398511047481</v>
+        <v>0.3524890677164194</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6785244950895546</v>
+        <v>1.100842768444082</v>
       </c>
       <c r="G2">
-        <v>0.0007859312432607778</v>
+        <v>0.002419336053547935</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1129456167720875</v>
+        <v>0.4114338666674886</v>
       </c>
       <c r="J2">
-        <v>0.4432870339208677</v>
+        <v>0.3477075488111439</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.127008995149396</v>
+        <v>2.213463880944857</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.070791764447165</v>
+        <v>1.125245784568278</v>
       </c>
       <c r="C3">
-        <v>0.8869337900443952</v>
+        <v>0.2934747437915064</v>
       </c>
       <c r="D3">
-        <v>0.3481456679270991</v>
+        <v>0.3410804870248398</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6331995987157129</v>
+        <v>1.103164224985726</v>
       </c>
       <c r="G3">
-        <v>0.0007905801394424997</v>
+        <v>0.002422345133421985</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1256503652916088</v>
+        <v>0.4218043733499783</v>
       </c>
       <c r="J3">
-        <v>0.3907479143596646</v>
+        <v>0.3361625255661949</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.082660593015348</v>
+        <v>2.236217478565891</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.789875615736491</v>
+        <v>1.035628213018413</v>
       </c>
       <c r="C4">
-        <v>0.8069280306116582</v>
+        <v>0.267787757299601</v>
       </c>
       <c r="D4">
-        <v>0.3205365981870187</v>
+        <v>0.334193557090174</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6074203185913873</v>
+        <v>1.105489656491166</v>
       </c>
       <c r="G4">
-        <v>0.000793521021307171</v>
+        <v>0.002424289857444307</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1344176147101823</v>
+        <v>0.4285951286925673</v>
       </c>
       <c r="J4">
-        <v>0.3590874758304068</v>
+        <v>0.3292828434728818</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.06037871447613</v>
+        <v>2.252292274858519</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.675434549908175</v>
+        <v>0.9990528910933563</v>
       </c>
       <c r="C5">
-        <v>0.7743301400370228</v>
+        <v>0.257298084929829</v>
       </c>
       <c r="D5">
-        <v>0.3093447418152095</v>
+        <v>0.3314168884784721</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5973961352824375</v>
+        <v>1.106663095342185</v>
       </c>
       <c r="G5">
-        <v>0.0007947417250582234</v>
+        <v>0.00242510684867682</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.138220483383483</v>
+        <v>0.4314685176079429</v>
       </c>
       <c r="J5">
-        <v>0.3463213217981291</v>
+        <v>0.3265317684174107</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.0524635473041</v>
+        <v>2.259370367914286</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.656432630825009</v>
+        <v>0.9929763059291759</v>
       </c>
       <c r="C6">
-        <v>0.7689172632916552</v>
+        <v>0.2555549715297047</v>
       </c>
       <c r="D6">
-        <v>0.3074897107172774</v>
+        <v>0.3309576295423398</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5957597117257976</v>
+        <v>1.10687156697584</v>
       </c>
       <c r="G6">
-        <v>0.000794945782148007</v>
+        <v>0.002425243991366793</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1388654833246026</v>
+        <v>0.4319520404550428</v>
       </c>
       <c r="J6">
-        <v>0.3442092929407465</v>
+        <v>0.3260781193712603</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.051217358574632</v>
+        <v>2.260577492119651</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.788332136226302</v>
+        <v>1.035135166862688</v>
       </c>
       <c r="C7">
-        <v>0.8064883984429798</v>
+        <v>0.2676463782238159</v>
       </c>
       <c r="D7">
-        <v>0.3203854308164011</v>
+        <v>0.3341559890702825</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6072832252392573</v>
+        <v>1.105504568305562</v>
       </c>
       <c r="G7">
-        <v>0.0007935373933519733</v>
+        <v>0.002424300776508126</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1344679862056282</v>
+        <v>0.4286334510499241</v>
       </c>
       <c r="J7">
-        <v>0.3589147763908755</v>
+        <v>0.3292455292769461</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.060267352892254</v>
+        <v>2.252385598848477</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.370789470241562</v>
+        <v>1.220680227886874</v>
       </c>
       <c r="C8">
-        <v>0.9723580459026948</v>
+        <v>0.3208081443543165</v>
       </c>
       <c r="D8">
-        <v>0.3778288898472653</v>
+        <v>0.3485309826342871</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.662449511364791</v>
+        <v>1.101456087326554</v>
       </c>
       <c r="G8">
-        <v>0.0007875165728568653</v>
+        <v>0.002420353468477795</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1171176466004997</v>
+        <v>0.4149215854687558</v>
       </c>
       <c r="J8">
-        <v>0.4250380306263963</v>
+        <v>0.3436833767600689</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.110641456575451</v>
+        <v>2.220871683690419</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.517470201540448</v>
+        <v>1.582631768227827</v>
       </c>
       <c r="C9">
-        <v>1.298762306880803</v>
+        <v>0.4243217106224506</v>
       </c>
       <c r="D9">
-        <v>0.4929129498973737</v>
+        <v>0.3776519215137739</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7885651476959339</v>
+        <v>1.100683343992571</v>
       </c>
       <c r="G9">
-        <v>0.0007763698144767834</v>
+        <v>0.002413380134712372</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.09137916029729176</v>
+        <v>0.3914047441400239</v>
       </c>
       <c r="J9">
-        <v>0.5601807570464103</v>
+        <v>0.3736610294894263</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.252509436844406</v>
+        <v>2.17583963973928</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.365902943500828</v>
+        <v>1.847316427812586</v>
       </c>
       <c r="C10">
-        <v>1.540193113747364</v>
+        <v>0.4999020587448513</v>
       </c>
       <c r="D10">
-        <v>0.579484078826539</v>
+        <v>0.3996115039553558</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8946517956246822</v>
+        <v>1.10452092266182</v>
       </c>
       <c r="G10">
-        <v>0.0007685440176348202</v>
+        <v>0.002408719812834187</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.07843684718831945</v>
+        <v>0.3762012930754715</v>
       </c>
       <c r="J10">
-        <v>0.6639041066707989</v>
+        <v>0.3967127096644418</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.388719129210159</v>
+        <v>2.15307757520219</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.753970276488928</v>
+        <v>1.967443578893779</v>
       </c>
       <c r="C11">
-        <v>1.650608734229934</v>
+        <v>0.5341791259980937</v>
       </c>
       <c r="D11">
-        <v>0.619436301861839</v>
+        <v>0.4097234860183789</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.946436188484455</v>
+        <v>1.107231304153089</v>
       </c>
       <c r="G11">
-        <v>0.0007650535399790408</v>
+        <v>0.002406699222735451</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.07406667457906124</v>
+        <v>0.3697392604144447</v>
       </c>
       <c r="J11">
-        <v>0.7123218372999958</v>
+        <v>0.40742530651697</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.459016043976447</v>
+        <v>2.144985989633824</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.901296461337722</v>
+        <v>2.012890627224067</v>
       </c>
       <c r="C12">
-        <v>1.692525513873932</v>
+        <v>0.5471433876454626</v>
       </c>
       <c r="D12">
-        <v>0.634659012468461</v>
+        <v>0.4135701387348831</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9666079370738743</v>
+        <v>1.108396978366329</v>
       </c>
       <c r="G12">
-        <v>0.0007637409508098624</v>
+        <v>0.00240594829636226</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.072650320681511</v>
+        <v>0.3673578993477822</v>
       </c>
       <c r="J12">
-        <v>0.7308582821506064</v>
+        <v>0.4115145914469593</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.486961149612199</v>
+        <v>2.142249093695312</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.86954933629346</v>
+        <v>2.003104719275427</v>
       </c>
       <c r="C13">
-        <v>1.683492981226323</v>
+        <v>0.5443520113158229</v>
       </c>
       <c r="D13">
-        <v>0.6313761669654809</v>
+        <v>0.4127409187954072</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.9622376578983847</v>
+        <v>1.108139724156132</v>
       </c>
       <c r="G13">
-        <v>0.0007640232459311121</v>
+        <v>0.002406109389971494</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.07294440640935029</v>
+        <v>0.3678678414189314</v>
       </c>
       <c r="J13">
-        <v>0.726856744695425</v>
+        <v>0.4106324364329481</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.480881596127745</v>
+        <v>2.142823951782361</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.766082980994895</v>
+        <v>1.971183399930737</v>
       </c>
       <c r="C14">
-        <v>1.654055029785582</v>
+        <v>0.5352460223380717</v>
       </c>
       <c r="D14">
-        <v>0.6206867357970509</v>
+        <v>0.4100396032604863</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9480841309202219</v>
+        <v>1.107324409446591</v>
       </c>
       <c r="G14">
-        <v>0.000764945373471857</v>
+        <v>0.002406637158813447</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.07394524699440197</v>
+        <v>0.3695420261392286</v>
       </c>
       <c r="J14">
-        <v>0.7138426519641285</v>
+        <v>0.4077610792678144</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.461287780502317</v>
+        <v>2.144754255461919</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.702757678696173</v>
+        <v>1.95162506673131</v>
       </c>
       <c r="C15">
-        <v>1.636037715410396</v>
+        <v>0.529666274879105</v>
       </c>
       <c r="D15">
-        <v>0.6141517120976232</v>
+        <v>0.4083872396279844</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9394896137747679</v>
+        <v>1.106843165815079</v>
       </c>
       <c r="G15">
-        <v>0.0007655113732079911</v>
+        <v>0.002406962283341487</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.074589988301895</v>
+        <v>0.3705760759071488</v>
       </c>
       <c r="J15">
-        <v>0.705898172337271</v>
+        <v>0.4060065465576486</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.449462530869312</v>
+        <v>2.145979288129951</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.340590143894929</v>
+        <v>1.839460016149758</v>
       </c>
       <c r="C16">
-        <v>1.532990707213116</v>
+        <v>0.4976598071306739</v>
       </c>
       <c r="D16">
-        <v>0.5768855585843369</v>
+        <v>0.3989531139084193</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8913431089115136</v>
+        <v>1.104363255028673</v>
       </c>
       <c r="G16">
-        <v>0.0007687734590699027</v>
+        <v>0.002408853857706227</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.07875468153420861</v>
+        <v>0.3766327714567339</v>
       </c>
       <c r="J16">
-        <v>0.6607667439507878</v>
+        <v>0.3960171796216372</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.384303354264432</v>
+        <v>2.153652070143096</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.119000554389345</v>
+        <v>1.770577196499971</v>
       </c>
       <c r="C17">
-        <v>1.469939030133105</v>
+        <v>0.4779975674233015</v>
       </c>
       <c r="D17">
-        <v>0.5541780670865535</v>
+        <v>0.3931968443194478</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8627474446048495</v>
+        <v>1.103089404027656</v>
       </c>
       <c r="G17">
-        <v>0.0007707918868715496</v>
+        <v>0.002410039690823389</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.08171216158868866</v>
+        <v>0.380464927141805</v>
       </c>
       <c r="J17">
-        <v>0.6334126156455966</v>
+        <v>0.3899470649045469</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.346551725630178</v>
+        <v>2.158939958786846</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.991742227374971</v>
+        <v>1.730931476493936</v>
       </c>
       <c r="C18">
-        <v>1.433727349702167</v>
+        <v>0.4666785400096387</v>
       </c>
       <c r="D18">
-        <v>0.5411702695312499</v>
+        <v>0.389897525177247</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8466281908855819</v>
+        <v>1.102447480203153</v>
       </c>
       <c r="G18">
-        <v>0.0007719594290482644</v>
+        <v>0.002410731112065593</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.08355473168813354</v>
+        <v>0.3827118008876251</v>
       </c>
       <c r="J18">
-        <v>0.6177937608008648</v>
+        <v>0.3864769860748396</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.325614259503993</v>
+        <v>2.162194308690516</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.948686060755222</v>
+        <v>1.717503698548967</v>
       </c>
       <c r="C19">
-        <v>1.421475380024333</v>
+        <v>0.462844443856568</v>
       </c>
       <c r="D19">
-        <v>0.5367748097653475</v>
+        <v>0.3887824179645634</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.841225254330098</v>
+        <v>1.102245706039199</v>
       </c>
       <c r="G19">
-        <v>0.0007723558954756959</v>
+        <v>0.002410966825226568</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.08420230559494257</v>
+        <v>0.3834798794462237</v>
       </c>
       <c r="J19">
-        <v>0.6125244475905589</v>
+        <v>0.385305730063294</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.318654833832909</v>
+        <v>2.163332686021363</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.142568564908174</v>
+        <v>1.777912613125807</v>
       </c>
       <c r="C20">
-        <v>1.476645261508509</v>
+        <v>0.4800916682034995</v>
       </c>
       <c r="D20">
-        <v>0.5565897572049323</v>
+        <v>0.3938084162806206</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8657571479264021</v>
+        <v>1.103215609833242</v>
       </c>
       <c r="G20">
-        <v>0.0007705763448179869</v>
+        <v>0.002409912488455573</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.08138254552375024</v>
+        <v>0.380052563656017</v>
       </c>
       <c r="J20">
-        <v>0.6363124881026891</v>
+        <v>0.390591034620968</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.350489226563326</v>
+        <v>2.158355007024397</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.796462831070642</v>
+        <v>1.980560637090605</v>
       </c>
       <c r="C21">
-        <v>1.662698654593555</v>
+        <v>0.5379211037891309</v>
       </c>
       <c r="D21">
-        <v>0.6238238407883614</v>
+        <v>0.4108325722769735</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.952225644704626</v>
+        <v>1.107560101513599</v>
       </c>
       <c r="G21">
-        <v>0.0007646742799709785</v>
+        <v>0.002406481754852438</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.07364463134459776</v>
+        <v>0.3690484922582105</v>
       </c>
       <c r="J21">
-        <v>0.7176595272183732</v>
+        <v>0.4086035792131923</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.467005928839171</v>
+        <v>2.144178383735721</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.226034849260316</v>
+        <v>2.112754065083095</v>
       </c>
       <c r="C22">
-        <v>1.784916894535797</v>
+        <v>0.5756240606892788</v>
       </c>
       <c r="D22">
-        <v>0.6683173579704373</v>
+        <v>0.4220605730826605</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.012043519105859</v>
+        <v>1.111211768851405</v>
       </c>
       <c r="G22">
-        <v>0.0007608700119585118</v>
+        <v>0.00240432246686685</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.06998854541575383</v>
+        <v>0.3622396460761426</v>
       </c>
       <c r="J22">
-        <v>0.7720131517426836</v>
+        <v>0.4205662243296331</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.55094756955566</v>
+        <v>2.136821214543545</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.996536739098929</v>
+        <v>2.042223474119169</v>
       </c>
       <c r="C23">
-        <v>1.719622621946996</v>
+        <v>0.5555099059781128</v>
       </c>
       <c r="D23">
-        <v>0.6445156877730369</v>
+        <v>0.4160587168169343</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.9797955770614095</v>
+        <v>1.109188283665972</v>
       </c>
       <c r="G23">
-        <v>0.0007628958532433707</v>
+        <v>0.002405467357165464</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.07180448552852958</v>
+        <v>0.3658384923498694</v>
       </c>
       <c r="J23">
-        <v>0.742886198343939</v>
+        <v>0.4141640736745416</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.505388613366961</v>
+        <v>2.140572692319182</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.131913047456919</v>
+        <v>1.774596408365426</v>
       </c>
       <c r="C24">
-        <v>1.473613258795581</v>
+        <v>0.4791449717453702</v>
       </c>
       <c r="D24">
-        <v>0.5554992864432506</v>
+        <v>0.3935318933239103</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.8643954660297481</v>
+        <v>1.103158270545237</v>
       </c>
       <c r="G24">
-        <v>0.0007706737691663211</v>
+        <v>0.002409969966621627</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.08153112330779244</v>
+        <v>0.3802388570390836</v>
       </c>
       <c r="J24">
-        <v>0.6350011230560568</v>
+        <v>0.3902998345282782</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.348706704522215</v>
+        <v>2.158618796393341</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.20646557582279</v>
+        <v>1.484926450598039</v>
       </c>
       <c r="C25">
-        <v>1.210248776554749</v>
+        <v>0.3963997083005779</v>
       </c>
       <c r="D25">
-        <v>0.46146627565426</v>
+        <v>0.3696745682062499</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7522814479843163</v>
+        <v>1.100121409913299</v>
       </c>
       <c r="G25">
-        <v>0.0007793184733981828</v>
+        <v>0.002415184956424705</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.09736459603036351</v>
+        <v>0.3974037400132016</v>
       </c>
       <c r="J25">
-        <v>0.522927141350209</v>
+        <v>0.3653717823486744</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.20895452315898</v>
+        <v>2.186216508255541</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_122/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_122/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.270828066841489</v>
+        <v>3.528799239139857</v>
       </c>
       <c r="C2">
-        <v>0.3351633210374416</v>
+        <v>1.017345487885223</v>
       </c>
       <c r="D2">
-        <v>0.3524890677164194</v>
+        <v>0.393539851104606</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.100842768444082</v>
+        <v>0.6785244950895546</v>
       </c>
       <c r="G2">
-        <v>0.002419336053547935</v>
+        <v>0.0007859312432999538</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4114338666674886</v>
+        <v>0.1129456167720981</v>
       </c>
       <c r="J2">
-        <v>0.3477075488111439</v>
+        <v>0.4432870339208534</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.213463880944857</v>
+        <v>1.127008995149367</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.125245784568278</v>
+        <v>3.070791764447108</v>
       </c>
       <c r="C3">
-        <v>0.2934747437915064</v>
+        <v>0.8869337900443952</v>
       </c>
       <c r="D3">
-        <v>0.3410804870248398</v>
+        <v>0.3481456679270991</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.103164224985726</v>
+        <v>0.6331995987157271</v>
       </c>
       <c r="G3">
-        <v>0.002422345133421985</v>
+        <v>0.0007905801394216788</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4218043733499783</v>
+        <v>0.1256503652916194</v>
       </c>
       <c r="J3">
-        <v>0.3361625255661949</v>
+        <v>0.3907479143595793</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.236217478565891</v>
+        <v>1.082660593015348</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.035628213018413</v>
+        <v>2.789875615736378</v>
       </c>
       <c r="C4">
-        <v>0.267787757299601</v>
+        <v>0.8069280306113455</v>
       </c>
       <c r="D4">
-        <v>0.334193557090174</v>
+        <v>0.3205365981870898</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.105489656491166</v>
+        <v>0.6074203185913944</v>
       </c>
       <c r="G4">
-        <v>0.002424289857444307</v>
+        <v>0.0007935210213816959</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4285951286925673</v>
+        <v>0.1344176147101805</v>
       </c>
       <c r="J4">
-        <v>0.3292828434728818</v>
+        <v>0.3590874758303926</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.252292274858519</v>
+        <v>1.060378714476172</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9990528910933563</v>
+        <v>2.675434549907834</v>
       </c>
       <c r="C5">
-        <v>0.257298084929829</v>
+        <v>0.7743301400368239</v>
       </c>
       <c r="D5">
-        <v>0.3314168884784721</v>
+        <v>0.3093447418149395</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.106663095342185</v>
+        <v>0.5973961352824304</v>
       </c>
       <c r="G5">
-        <v>0.00242510684867682</v>
+        <v>0.0007947417250227307</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4314685176079429</v>
+        <v>0.1382204833834795</v>
       </c>
       <c r="J5">
-        <v>0.3265317684174107</v>
+        <v>0.3463213217981718</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.259370367914286</v>
+        <v>1.052463547304086</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9929763059291759</v>
+        <v>2.656432630825009</v>
       </c>
       <c r="C6">
-        <v>0.2555549715297047</v>
+        <v>0.7689172632914847</v>
       </c>
       <c r="D6">
-        <v>0.3309576295423398</v>
+        <v>0.3074897107172347</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.10687156697584</v>
+        <v>0.5957597117257833</v>
       </c>
       <c r="G6">
-        <v>0.002425243991366793</v>
+        <v>0.0007949457821316841</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4319520404550428</v>
+        <v>0.1388654833245795</v>
       </c>
       <c r="J6">
-        <v>0.3260781193712603</v>
+        <v>0.3442092929407607</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.260577492119651</v>
+        <v>1.051217358574604</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.035135166862688</v>
+        <v>2.788332136226359</v>
       </c>
       <c r="C7">
-        <v>0.2676463782238159</v>
+        <v>0.8064883984429798</v>
       </c>
       <c r="D7">
-        <v>0.3341559890702825</v>
+        <v>0.3203854308163301</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.105504568305562</v>
+        <v>0.6072832252392502</v>
       </c>
       <c r="G7">
-        <v>0.002424300776508126</v>
+        <v>0.0007935373933689593</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4286334510499241</v>
+        <v>0.1344679862056104</v>
       </c>
       <c r="J7">
-        <v>0.3292455292769461</v>
+        <v>0.3589147763908471</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.252385598848477</v>
+        <v>1.060267352892254</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.220680227886874</v>
+        <v>3.370789470241562</v>
       </c>
       <c r="C8">
-        <v>0.3208081443543165</v>
+        <v>0.9723580459024959</v>
       </c>
       <c r="D8">
-        <v>0.3485309826342871</v>
+        <v>0.3778288898471658</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.101456087326554</v>
+        <v>0.6624495113647839</v>
       </c>
       <c r="G8">
-        <v>0.002420353468477795</v>
+        <v>0.0007875165728000534</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4149215854687558</v>
+        <v>0.1171176466004873</v>
       </c>
       <c r="J8">
-        <v>0.3436833767600689</v>
+        <v>0.4250380306264105</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.220871683690419</v>
+        <v>1.110641456575479</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.582631768227827</v>
+        <v>4.517470201540391</v>
       </c>
       <c r="C9">
-        <v>0.4243217106224506</v>
+        <v>1.298762306881088</v>
       </c>
       <c r="D9">
-        <v>0.3776519215137739</v>
+        <v>0.4929129498974589</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.100683343992571</v>
+        <v>0.7885651476959197</v>
       </c>
       <c r="G9">
-        <v>0.002413380134712372</v>
+        <v>0.0007763698145756425</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3914047441400239</v>
+        <v>0.09137916029728821</v>
       </c>
       <c r="J9">
-        <v>0.3736610294894263</v>
+        <v>0.560180757046453</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.17583963973928</v>
+        <v>1.252509436844406</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.847316427812586</v>
+        <v>5.365902943500828</v>
       </c>
       <c r="C10">
-        <v>0.4999020587448513</v>
+        <v>1.540193113747137</v>
       </c>
       <c r="D10">
-        <v>0.3996115039553558</v>
+        <v>0.579484078826539</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.10452092266182</v>
+        <v>0.8946517956246822</v>
       </c>
       <c r="G10">
-        <v>0.002408719812834187</v>
+        <v>0.0007685440176349069</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3762012930754715</v>
+        <v>0.07843684718831767</v>
       </c>
       <c r="J10">
-        <v>0.3967127096644418</v>
+        <v>0.6639041066707563</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.15307757520219</v>
+        <v>1.388719129210187</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.967443578893779</v>
+        <v>5.753970276488815</v>
       </c>
       <c r="C11">
-        <v>0.5341791259980937</v>
+        <v>1.650608734230161</v>
       </c>
       <c r="D11">
-        <v>0.4097234860183789</v>
+        <v>0.6194363018618958</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.107231304153089</v>
+        <v>0.946436188484455</v>
       </c>
       <c r="G11">
-        <v>0.002406699222735451</v>
+        <v>0.0007650535400071127</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3697392604144447</v>
+        <v>0.07406667457904881</v>
       </c>
       <c r="J11">
-        <v>0.40742530651697</v>
+        <v>0.71232183730001</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.144985989633824</v>
+        <v>1.459016043976447</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.012890627224067</v>
+        <v>5.901296461337893</v>
       </c>
       <c r="C12">
-        <v>0.5471433876454626</v>
+        <v>1.692525513874102</v>
       </c>
       <c r="D12">
-        <v>0.4135701387348831</v>
+        <v>0.634659012468461</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.108396978366329</v>
+        <v>0.9666079370738743</v>
       </c>
       <c r="G12">
-        <v>0.00240594829636226</v>
+        <v>0.0007637409508080339</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3673578993477822</v>
+        <v>0.07265032068152877</v>
       </c>
       <c r="J12">
-        <v>0.4115145914469593</v>
+        <v>0.7308582821505638</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.142249093695312</v>
+        <v>1.486961149612256</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.003104719275427</v>
+        <v>5.869549336293574</v>
       </c>
       <c r="C13">
-        <v>0.5443520113158229</v>
+        <v>1.683492981226266</v>
       </c>
       <c r="D13">
-        <v>0.4127409187954072</v>
+        <v>0.6313761669654525</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.108139724156132</v>
+        <v>0.9622376578983989</v>
       </c>
       <c r="G13">
-        <v>0.002406109389971494</v>
+        <v>0.0007640232458809148</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3678678414189314</v>
+        <v>0.07294440640936273</v>
       </c>
       <c r="J13">
-        <v>0.4106324364329481</v>
+        <v>0.7268567446954535</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.142823951782361</v>
+        <v>1.480881596127773</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.971183399930737</v>
+        <v>5.766082980994895</v>
       </c>
       <c r="C14">
-        <v>0.5352460223380717</v>
+        <v>1.654055029785582</v>
       </c>
       <c r="D14">
-        <v>0.4100396032604863</v>
+        <v>0.6206867357970225</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.107324409446591</v>
+        <v>0.9480841309202219</v>
       </c>
       <c r="G14">
-        <v>0.002406637158813447</v>
+        <v>0.0007649453734431266</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3695420261392286</v>
+        <v>0.07394524699441796</v>
       </c>
       <c r="J14">
-        <v>0.4077610792678144</v>
+        <v>0.7138426519641996</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.144754255461919</v>
+        <v>1.461287780502346</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.95162506673131</v>
+        <v>5.702757678695832</v>
       </c>
       <c r="C15">
-        <v>0.529666274879105</v>
+        <v>1.636037715410282</v>
       </c>
       <c r="D15">
-        <v>0.4083872396279844</v>
+        <v>0.61415171209768</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.106843165815079</v>
+        <v>0.9394896137747679</v>
       </c>
       <c r="G15">
-        <v>0.002406962283341487</v>
+        <v>0.0007655113732639718</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3705760759071488</v>
+        <v>0.07458998830189323</v>
       </c>
       <c r="J15">
-        <v>0.4060065465576486</v>
+        <v>0.7058981723372568</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.145979288129951</v>
+        <v>1.449462530869255</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.839460016149758</v>
+        <v>5.340590143895213</v>
       </c>
       <c r="C16">
-        <v>0.4976598071306739</v>
+        <v>1.53299070721323</v>
       </c>
       <c r="D16">
-        <v>0.3989531139084193</v>
+        <v>0.5768855585843369</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.104363255028673</v>
+        <v>0.8913431089115278</v>
       </c>
       <c r="G16">
-        <v>0.002408853857706227</v>
+        <v>0.0007687734590631794</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3766327714567339</v>
+        <v>0.07875468153422283</v>
       </c>
       <c r="J16">
-        <v>0.3960171796216372</v>
+        <v>0.6607667439508447</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.153652070143096</v>
+        <v>1.384303354264432</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.770577196499971</v>
+        <v>5.119000554389174</v>
       </c>
       <c r="C17">
-        <v>0.4779975674233015</v>
+        <v>1.469939030133048</v>
       </c>
       <c r="D17">
-        <v>0.3931968443194478</v>
+        <v>0.5541780670866103</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.103089404027656</v>
+        <v>0.8627474446048637</v>
       </c>
       <c r="G17">
-        <v>0.002410039690823389</v>
+        <v>0.000770791886837493</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.380464927141805</v>
+        <v>0.08171216158868688</v>
       </c>
       <c r="J17">
-        <v>0.3899470649045469</v>
+        <v>0.6334126156455255</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.158939958786846</v>
+        <v>1.346551725630121</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.730931476493936</v>
+        <v>4.991742227374971</v>
       </c>
       <c r="C18">
-        <v>0.4666785400096387</v>
+        <v>1.433727349702167</v>
       </c>
       <c r="D18">
-        <v>0.389897525177247</v>
+        <v>0.5411702695313352</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.102447480203153</v>
+        <v>0.8466281908855535</v>
       </c>
       <c r="G18">
-        <v>0.002410731112065593</v>
+        <v>0.0007719594290555289</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3827118008876251</v>
+        <v>0.08355473168813177</v>
       </c>
       <c r="J18">
-        <v>0.3864769860748396</v>
+        <v>0.6177937608009927</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.162194308690516</v>
+        <v>1.325614259503965</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.717503698548967</v>
+        <v>4.948686060755222</v>
       </c>
       <c r="C19">
-        <v>0.462844443856568</v>
+        <v>1.42147538002439</v>
       </c>
       <c r="D19">
-        <v>0.3887824179645634</v>
+        <v>0.5367748097654044</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.102245706039199</v>
+        <v>0.8412252543301122</v>
       </c>
       <c r="G19">
-        <v>0.002410966825226568</v>
+        <v>0.0007723558954971845</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3834798794462237</v>
+        <v>0.08420230559493902</v>
       </c>
       <c r="J19">
-        <v>0.385305730063294</v>
+        <v>0.6125244475905447</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.163332686021363</v>
+        <v>1.318654833832966</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.777912613125807</v>
+        <v>5.142568564908117</v>
       </c>
       <c r="C20">
-        <v>0.4800916682034995</v>
+        <v>1.476645261508281</v>
       </c>
       <c r="D20">
-        <v>0.3938084162806206</v>
+        <v>0.556589757204847</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.103215609833242</v>
+        <v>0.8657571479264163</v>
       </c>
       <c r="G20">
-        <v>0.002409912488455573</v>
+        <v>0.0007705763448178866</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.380052563656017</v>
+        <v>0.08138254552374846</v>
       </c>
       <c r="J20">
-        <v>0.390591034620968</v>
+        <v>0.6363124881026891</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.158355007024397</v>
+        <v>1.350489226563326</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.980560637090605</v>
+        <v>5.796462831070585</v>
       </c>
       <c r="C21">
-        <v>0.5379211037891309</v>
+        <v>1.662698654593555</v>
       </c>
       <c r="D21">
-        <v>0.4108325722769735</v>
+        <v>0.623823840788333</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.107560101513599</v>
+        <v>0.952225644704626</v>
       </c>
       <c r="G21">
-        <v>0.002406481754852438</v>
+        <v>0.0007646742799983181</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3690484922582105</v>
+        <v>0.07364463134459598</v>
       </c>
       <c r="J21">
-        <v>0.4086035792131923</v>
+        <v>0.717659527218359</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.144178383735721</v>
+        <v>1.4670059288392</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.112754065083095</v>
+        <v>6.226034849260429</v>
       </c>
       <c r="C22">
-        <v>0.5756240606892788</v>
+        <v>1.78491689453557</v>
       </c>
       <c r="D22">
-        <v>0.4220605730826605</v>
+        <v>0.6683173579704089</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.111211768851405</v>
+        <v>1.012043519105887</v>
       </c>
       <c r="G22">
-        <v>0.00240432246686685</v>
+        <v>0.0007608700119564771</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3622396460761426</v>
+        <v>0.06998854541575383</v>
       </c>
       <c r="J22">
-        <v>0.4205662243296331</v>
+        <v>0.7720131517427973</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.136821214543545</v>
+        <v>1.55094756955566</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.042223474119169</v>
+        <v>5.996536739098758</v>
       </c>
       <c r="C23">
-        <v>0.5555099059781128</v>
+        <v>1.719622621946655</v>
       </c>
       <c r="D23">
-        <v>0.4160587168169343</v>
+        <v>0.6445156877729517</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.109188283665972</v>
+        <v>0.9797955770613953</v>
       </c>
       <c r="G23">
-        <v>0.002405467357165464</v>
+        <v>0.0007628958532715586</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3658384923498694</v>
+        <v>0.07180448552854024</v>
       </c>
       <c r="J23">
-        <v>0.4141640736745416</v>
+        <v>0.7428861983438679</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.140572692319182</v>
+        <v>1.505388613366961</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.774596408365426</v>
+        <v>5.131913047456976</v>
       </c>
       <c r="C24">
-        <v>0.4791449717453702</v>
+        <v>1.473613258795979</v>
       </c>
       <c r="D24">
-        <v>0.3935318933239103</v>
+        <v>0.5554992864435349</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.103158270545237</v>
+        <v>0.8643954660297624</v>
       </c>
       <c r="G24">
-        <v>0.002409969966621627</v>
+        <v>0.0007706737691418804</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3802388570390836</v>
+        <v>0.08153112330780843</v>
       </c>
       <c r="J24">
-        <v>0.3902998345282782</v>
+        <v>0.6350011230560426</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.158618796393341</v>
+        <v>1.348706704522215</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.484926450598039</v>
+        <v>4.206465575822904</v>
       </c>
       <c r="C25">
-        <v>0.3963997083005779</v>
+        <v>1.210248776554408</v>
       </c>
       <c r="D25">
-        <v>0.3696745682062499</v>
+        <v>0.4614662756540895</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.100121409913299</v>
+        <v>0.7522814479843163</v>
       </c>
       <c r="G25">
-        <v>0.002415184956424705</v>
+        <v>0.0007793184733976832</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3974037400132016</v>
+        <v>0.09736459603037773</v>
       </c>
       <c r="J25">
-        <v>0.3653717823486744</v>
+        <v>0.5229271413501806</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.186216508255541</v>
+        <v>1.208954523159036</v>
       </c>
     </row>
   </sheetData>
